--- a/goods_201912.xlsx
+++ b/goods_201912.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>产品编号编码</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>sku备注</t>
+  </si>
+  <si>
+    <t>类别ID</t>
   </si>
   <si>
     <t>A0172</t>
@@ -149,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,7 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,21 +182,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,76 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +249,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -334,18 +337,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,157 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +540,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,15 +604,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,52 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +798,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1128,7 +1137,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:23">
+    <row r="1" ht="54" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,25 +1207,28 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1244,10 +1256,10 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3">
         <v>80</v>
@@ -1257,25 +1269,28 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1303,10 +1318,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="3">
         <v>80</v>
@@ -1316,25 +1331,28 @@
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1362,10 +1380,10 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" s="3">
         <v>270</v>
@@ -1375,6 +1393,9 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goods_201912.xlsx
+++ b/goods_201912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>产品编号编码</t>
   </si>
@@ -31,7 +31,7 @@
     <t>起批量</t>
   </si>
   <si>
-    <t>投放区域必填，多地区以/号分隔</t>
+    <t>供应商名称</t>
   </si>
   <si>
     <t>带电
@@ -102,6 +102,12 @@
     <t>类别ID</t>
   </si>
   <si>
+    <t>中文报关名称</t>
+  </si>
+  <si>
+    <t>英文报关名称</t>
+  </si>
+  <si>
     <t>A0172</t>
   </si>
   <si>
@@ -114,7 +120,7 @@
     <t>https://detail.1688.com/offer/551005339644.html?spm=b26110380.sw1688.0.0.1f2e2c65UPb723</t>
   </si>
   <si>
-    <t>欧美</t>
+    <t>易纵网络</t>
   </si>
   <si>
     <t>A0172-C</t>
@@ -152,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -173,16 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +202,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -213,9 +266,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,75 +289,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,25 +337,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,157 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,16 +546,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -564,22 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,9 +602,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,17 +626,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +663,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +804,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,19 +1128,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="25" max="25" width="14.375" customWidth="1"/>
+    <col min="26" max="26" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:24">
+    <row r="1" ht="54" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,28 +1212,34 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1256,10 +1267,10 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T2" s="3">
         <v>80</v>
@@ -1269,28 +1280,34 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>1</v>
       </c>
+      <c r="Y2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1318,10 +1335,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" s="3">
         <v>80</v>
@@ -1331,28 +1348,34 @@
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="5">
-        <v>1</v>
+      <c r="X3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1380,10 +1403,10 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T4" s="3">
         <v>270</v>
@@ -1393,8 +1416,14 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="5">
-        <v>2</v>
+      <c r="X4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/goods_201912.xlsx
+++ b/goods_201912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>产品编号编码</t>
   </si>
@@ -25,7 +25,7 @@
     <t>产品英文名称</t>
   </si>
   <si>
-    <t>阿里巴巴货源</t>
+    <t>采购链接</t>
   </si>
   <si>
     <t>起批量</t>
@@ -64,10 +64,10 @@
 1:是</t>
   </si>
   <si>
-    <t>电压，伏电器类，包含充电器必填</t>
-  </si>
-  <si>
-    <t>插头制式电器类包含充电器必填</t>
+    <t>电压，伏电器类，包含充电器</t>
+  </si>
+  <si>
+    <t>插头制式电器类包含充电器</t>
   </si>
   <si>
     <t>是否有独立包装
@@ -117,16 +117,13 @@
     <t>FlexiExtensionDrillBit</t>
   </si>
   <si>
-    <t>https://detail.1688.com/offer/551005339644.html?spm=b26110380.sw1688.0.0.1f2e2c65UPb723</t>
-  </si>
-  <si>
     <t>易纵网络</t>
   </si>
   <si>
     <t>A0172-C</t>
   </si>
   <si>
-    <t>橙色</t>
+    <t>橙色/L</t>
   </si>
   <si>
     <t>A0172-D</t>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>GardenAugerSpiralDrillBit</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/589157951163.html?spm=b26110380.sw1688.mof001/cbu_ab---220-2--392-1--516-2.1.54cb4973jyJs6z</t>
   </si>
   <si>
     <t>A0173-A</t>
@@ -158,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,8 +166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +184,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +229,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,57 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +265,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,26 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,27 +564,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,11 +588,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +626,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,14 +1124,14 @@
   <sheetPr/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="25" max="25" width="14.375" customWidth="1"/>
     <col min="26" max="26" width="21.625" customWidth="1"/>
   </cols>
@@ -1152,7 +1146,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1232,14 +1226,12 @@
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1267,10 +1259,10 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="T2" s="3">
         <v>80</v>
@@ -1300,14 +1292,12 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1335,10 +1325,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="T3" s="3">
         <v>80</v>
@@ -1360,22 +1350,20 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1403,10 +1391,10 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T4" s="3">
         <v>270</v>
@@ -1420,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
